--- a/MetaExtractor/metadata_schema.xlsx
+++ b/MetaExtractor/metadata_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Migr_Frmw\MetaExtractor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Migr_Frmw\MetaExtractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1AE4BA-2BFE-489B-8760-C1BC3E4E49F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A9392-28B5-4424-B0D8-DFAC1A7D988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="2730" windowWidth="29680" windowHeight="18390" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="-110" windowWidth="37370" windowHeight="21820" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata Schema" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Výběr z</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Customer Address ZIP</t>
   </si>
   <si>
-    <t>CHAR(5)</t>
-  </si>
-  <si>
     <t>Address ZIP</t>
   </si>
   <si>
@@ -156,6 +153,15 @@
   </si>
   <si>
     <t>Column value sample</t>
+  </si>
+  <si>
+    <t>Meta_Order</t>
+  </si>
+  <si>
+    <t>Empty_Value</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
   </si>
 </sst>
 </file>
@@ -208,11 +214,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,13 +544,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -549,118 +558,121 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -668,28 +680,44 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3">
         <v>15000</v>
       </c>
     </row>
@@ -701,16 +729,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a105c32a-f9fe-4a61-83a5-045b38d9517b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002BAE74B7C508A24EBD2146DDD9907F4C" ma:contentTypeVersion="13" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="28dc6bd1a50b081a3c33eedab4893547">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a105c32a-f9fe-4a61-83a5-045b38d9517b" xmlns:ns3="2360c779-afae-404c-a42d-3f834f026b72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00fcc1076b55f00928ddab20690a95b1" ns2:_="" ns3:_="">
     <xsd:import namespace="a105c32a-f9fe-4a61-83a5-045b38d9517b"/>
@@ -927,6 +945,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a105c32a-f9fe-4a61-83a5-045b38d9517b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -937,16 +965,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0147EB43-ADC1-44D0-AD12-B25D4C8F91BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a105c32a-f9fe-4a61-83a5-045b38d9517b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB5908D-AEA6-4DFA-A94D-74D6B8E722E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -965,6 +983,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0147EB43-ADC1-44D0-AD12-B25D4C8F91BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a105c32a-f9fe-4a61-83a5-045b38d9517b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D801FF29-C148-4D29-99B5-51CC229AC2FC}">
   <ds:schemaRefs>
